--- a/_CLUSTER/groups_time_area/interpolation/combined_Fe/Area2_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_Fe/Area2_count.xlsx
@@ -378,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24672</v>
+        <v>29079</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22367</v>
+        <v>17960</v>
       </c>
     </row>
   </sheetData>
